--- a/data/trans_dic/Q17F_D_R3-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/Q17F_D_R3-Habitat-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.06142952235985556</v>
+        <v>0.06235799995482727</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.08358938208910674</v>
+        <v>0.07657566751365594</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.07549295777604745</v>
+        <v>0.07334168930365581</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.06623804157392758</v>
+        <v>0.07015684303834653</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.03317654875610289</v>
+        <v>0.03426544189091402</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.06025063344307439</v>
+        <v>0.06041153144671345</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.0845766255954795</v>
+        <v>0.08372053766233366</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1060906045498848</v>
+        <v>0.1001510581580987</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.05300650727520949</v>
+        <v>0.05585607485609839</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.07970671836581615</v>
+        <v>0.07894103638099577</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.08951453314768446</v>
+        <v>0.09049157083297132</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1015984573874611</v>
+        <v>0.1004065594646121</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1748234826787341</v>
+        <v>0.1872068645024737</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1788817435972188</v>
+        <v>0.1786005994211342</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1733531169536064</v>
+        <v>0.1731375042581971</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1765283256951335</v>
+        <v>0.1829375159617768</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1066443533264517</v>
+        <v>0.1064786671011099</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1399650148979489</v>
+        <v>0.1433864286581781</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1776143803508611</v>
+        <v>0.1733191003923067</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.192014217145101</v>
+        <v>0.1914153934511144</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1194370543858533</v>
+        <v>0.1189476542611385</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.1380691017513751</v>
+        <v>0.1379466488960082</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.1582337029572255</v>
+        <v>0.1564934519047448</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.1708706702607425</v>
+        <v>0.1661423980066437</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.04169492616197675</v>
+        <v>0.03794390833859945</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.079311200303194</v>
+        <v>0.08481916573531331</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.05122766651293557</v>
+        <v>0.05101052194342412</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1015322925673519</v>
+        <v>0.1027112269777663</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.06060690269312433</v>
+        <v>0.06151564516748352</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.06524506364821839</v>
+        <v>0.06300851051078968</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.05279963042391053</v>
+        <v>0.05110035232910151</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1297847714300676</v>
+        <v>0.1282818877478367</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.06123378060938681</v>
+        <v>0.06195696478740655</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.08028519457282647</v>
+        <v>0.07854537530622577</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.05690001711271463</v>
+        <v>0.0578154427959135</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1319318075452591</v>
+        <v>0.1281648111268999</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1224801044340717</v>
+        <v>0.1201859484156201</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1713083862328571</v>
+        <v>0.1753193063086101</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1250636845352441</v>
+        <v>0.1274254012836551</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2082207834529656</v>
+        <v>0.2069010177538584</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1315510906646612</v>
+        <v>0.1378366208109623</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1291617735619991</v>
+        <v>0.1255653892697743</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1114071329286947</v>
+        <v>0.11454498726028</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.2119329755008393</v>
+        <v>0.211651511399728</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.1184199265414453</v>
+        <v>0.1164847234625672</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.1310912232128504</v>
+        <v>0.135092095045917</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.1033659596086396</v>
+        <v>0.104966591775611</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1953583001544158</v>
+        <v>0.1987723181352334</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1213749791450785</v>
+        <v>0.1209681805092548</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.08899477820540777</v>
+        <v>0.08725734613528996</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1058011132293305</v>
+        <v>0.1048694897804973</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.173605742983217</v>
+        <v>0.1787305536816091</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1048296568288025</v>
+        <v>0.1072139734556059</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.0800015101716923</v>
+        <v>0.07643931857949465</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.1478286609214425</v>
+        <v>0.1491714449395155</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1870657469525834</v>
+        <v>0.1838502134390803</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1176693438817921</v>
+        <v>0.1236288801867133</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.09283746698632886</v>
+        <v>0.09298697183043414</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.1425681410855265</v>
+        <v>0.1396888047959113</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.2006077685601058</v>
+        <v>0.2002484422863866</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2518655155555677</v>
+        <v>0.2540324232870719</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2148230641282536</v>
+        <v>0.2002826864039598</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2329951854913282</v>
+        <v>0.2327617940732828</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.3274705021031349</v>
+        <v>0.3336526920662718</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.2070510335890351</v>
+        <v>0.2050413909713325</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1732897598103913</v>
+        <v>0.1770529954856465</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.2507501946282271</v>
+        <v>0.2506021615507548</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.3048014659488286</v>
+        <v>0.3084125840727152</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.2032114331553873</v>
+        <v>0.2057325208050323</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.1671612932907781</v>
+        <v>0.1670664053044348</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.2227586790930387</v>
+        <v>0.2203804851266787</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.2958248536133264</v>
+        <v>0.2970325640197808</v>
       </c>
     </row>
     <row r="13">
@@ -1093,7 +1093,7 @@
         <v>0.1265647412738455</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.2471481214957492</v>
+        <v>0.2471481214957491</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.1246061198532281</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.08901200075784649</v>
+        <v>0.08974012602732252</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.0802770281062172</v>
+        <v>0.08004757923204993</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.05555986563768978</v>
+        <v>0.05660653751550858</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1692051647759955</v>
+        <v>0.167423985915493</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.08534805503677857</v>
+        <v>0.08893237325750415</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.08505924277067653</v>
+        <v>0.08795791168170176</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.08825627067666421</v>
+        <v>0.09050788685540685</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.2045811493464872</v>
+        <v>0.2055871378551247</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.0982432084351952</v>
+        <v>0.09807295085665312</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.09520254829614572</v>
+        <v>0.09249984845615029</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.08533538210393449</v>
+        <v>0.08540786069480112</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.2050249685443457</v>
+        <v>0.2028645573097195</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1826077996575181</v>
+        <v>0.1847183388678737</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.189501611879493</v>
+        <v>0.1894899535663397</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1338742407474257</v>
+        <v>0.1313367291742457</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.278292740519611</v>
+        <v>0.2796904436310464</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1625196172506755</v>
+        <v>0.1689214911535977</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1560425093156743</v>
+        <v>0.1596641751191528</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.17460083413686</v>
+        <v>0.1773435501344986</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.2953772735288803</v>
+        <v>0.2914278604750597</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1574031544934523</v>
+        <v>0.157165653846023</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.1564362297208519</v>
+        <v>0.15125568554747</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.1448650019186981</v>
+        <v>0.1445556267092124</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.2744311392423435</v>
+        <v>0.2710684783022595</v>
       </c>
     </row>
     <row r="16">
@@ -1241,7 +1241,7 @@
         <v>0.1181716166053353</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.196195660747419</v>
+        <v>0.1961956607474191</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.0970968480281747</v>
+        <v>0.09735793305327092</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1021535877763712</v>
+        <v>0.1016357524042215</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.08802858296415721</v>
+        <v>0.08692838972958122</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.15463216596573</v>
+        <v>0.1552562462081707</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.08810146126791168</v>
+        <v>0.08853856725266156</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.08831630934255731</v>
+        <v>0.08691218235844062</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1061683703414005</v>
+        <v>0.1065449827404733</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1806487709366804</v>
+        <v>0.1807081184303071</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.09880123107209467</v>
+        <v>0.09691758713030704</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.09886174121823742</v>
+        <v>0.09859885352307564</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.1031775363106725</v>
+        <v>0.1046047621046136</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.1786731595291536</v>
+        <v>0.1781563593796125</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1537540179710359</v>
+        <v>0.1501659455179252</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1548517019268081</v>
+        <v>0.1532070170970906</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1327450841154197</v>
+        <v>0.1336132769522018</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2178308564900694</v>
+        <v>0.2191661984023104</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1286334637154148</v>
+        <v>0.1280283891211674</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1262444234353654</v>
+        <v>0.1246433164143768</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.1464981455830135</v>
+        <v>0.1472796919456691</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.2295259425350427</v>
+        <v>0.2302431489835393</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1302028340538328</v>
+        <v>0.1302182977877255</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.1291724614268586</v>
+        <v>0.1296386238524817</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.1343456727349309</v>
+        <v>0.1354318712570747</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.2155452650102627</v>
+        <v>0.2156033290308597</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>6864</v>
+        <v>6967</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>14692</v>
+        <v>13460</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>13600</v>
+        <v>13213</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>7625</v>
+        <v>8076</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>6133</v>
+        <v>6334</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>13419</v>
+        <v>13455</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>19185</v>
+        <v>18991</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>17930</v>
+        <v>16926</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>15721</v>
+        <v>16566</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>31762</v>
+        <v>31457</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>36432</v>
+        <v>36829</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>28865</v>
+        <v>28527</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>19533</v>
+        <v>20917</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>31442</v>
+        <v>31392</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>31230</v>
+        <v>31191</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>20320</v>
+        <v>21058</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>19713</v>
+        <v>19682</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>31173</v>
+        <v>31935</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>40290</v>
+        <v>39316</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>32451</v>
+        <v>32350</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>35422</v>
+        <v>35277</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>55018</v>
+        <v>54970</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>64400</v>
+        <v>63692</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>48546</v>
+        <v>47203</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>7230</v>
+        <v>6579</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>17623</v>
+        <v>18847</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>13170</v>
+        <v>13114</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>19438</v>
+        <v>19664</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>17276</v>
+        <v>17535</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>22731</v>
+        <v>21952</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>18072</v>
+        <v>17491</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>30121</v>
+        <v>29772</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>28072</v>
+        <v>28404</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>45810</v>
+        <v>44817</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>34104</v>
+        <v>34653</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>55877</v>
+        <v>54282</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>21237</v>
+        <v>20839</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>38065</v>
+        <v>38956</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>32152</v>
+        <v>32759</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>39863</v>
+        <v>39611</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>37499</v>
+        <v>39290</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>44999</v>
+        <v>43746</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>38133</v>
+        <v>39207</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>49186</v>
+        <v>49121</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>54289</v>
+        <v>53401</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>74800</v>
+        <v>77082</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>61954</v>
+        <v>62914</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>82740</v>
+        <v>84186</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>16520</v>
+        <v>16464</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>14624</v>
+        <v>14338</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>17625</v>
+        <v>17470</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>23374</v>
+        <v>24064</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>20312</v>
+        <v>20774</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>16896</v>
+        <v>16143</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>35610</v>
+        <v>35933</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>31929</v>
+        <v>31380</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>38816</v>
+        <v>40782</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>34862</v>
+        <v>34918</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>58093</v>
+        <v>56920</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>61250</v>
+        <v>61140</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>34280</v>
+        <v>34575</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>35300</v>
+        <v>32911</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>38814</v>
+        <v>38776</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>44090</v>
+        <v>44923</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>40119</v>
+        <v>39730</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>36598</v>
+        <v>37392</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>60402</v>
+        <v>60367</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>52024</v>
+        <v>52640</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>67034</v>
+        <v>67865</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>62772</v>
+        <v>62736</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>90769</v>
+        <v>89800</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>90321</v>
+        <v>90690</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>16365</v>
+        <v>16499</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>14745</v>
+        <v>14703</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>11803</v>
+        <v>12025</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>35619</v>
+        <v>35244</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>25999</v>
+        <v>27091</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>27713</v>
+        <v>28657</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>26223</v>
+        <v>26892</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>61739</v>
+        <v>62042</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>47990</v>
+        <v>47906</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>48504</v>
+        <v>47127</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>43483</v>
+        <v>43520</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>105032</v>
+        <v>103926</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>33574</v>
+        <v>33962</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>34808</v>
+        <v>34806</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>28439</v>
+        <v>27900</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>58583</v>
+        <v>58878</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>49507</v>
+        <v>51457</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>50839</v>
+        <v>52019</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>51878</v>
+        <v>52693</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>89139</v>
+        <v>87947</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>76888</v>
+        <v>76772</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>79702</v>
+        <v>77063</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>73817</v>
+        <v>73659</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>140589</v>
+        <v>138866</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>58752</v>
+        <v>58910</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>76204</v>
+        <v>75818</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>71854</v>
+        <v>70956</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>100774</v>
+        <v>101181</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>85307</v>
+        <v>85730</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>97864</v>
+        <v>96308</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>117543</v>
+        <v>117960</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>157805</v>
+        <v>157857</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>155451</v>
+        <v>152487</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>183297</v>
+        <v>182810</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>198451</v>
+        <v>201196</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>272521</v>
+        <v>271733</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>93034</v>
+        <v>90863</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>115515</v>
+        <v>114289</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>108354</v>
+        <v>109063</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>141961</v>
+        <v>142831</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>124554</v>
+        <v>123968</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>139892</v>
+        <v>138118</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>162193</v>
+        <v>163059</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>200502</v>
+        <v>201128</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>204857</v>
+        <v>204881</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>239496</v>
+        <v>240360</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>258400</v>
+        <v>260489</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>328761</v>
+        <v>328849</v>
       </c>
     </row>
     <row r="24">
